--- a/ConFig.xlsx
+++ b/ConFig.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/5ed886991340153c/Friday/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuhao/Projects/GitHub/Friday/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{566DAA66-EE62-4BF0-9C9E-C80D5CA7BF53}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{1AAA0F3F-7F07-3F42-BC6D-B73DB501DFA9}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96412FD7-31A7-5242-B37E-A4BB7F9F621B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7160" yWindow="1760" windowWidth="26380" windowHeight="17100" activeTab="4" xr2:uid="{4AA7346A-76D1-4311-A687-DD01542A4C42}"/>
+    <workbookView xWindow="6760" yWindow="3600" windowWidth="26380" windowHeight="17100" activeTab="5" xr2:uid="{4AA7346A-76D1-4311-A687-DD01542A4C42}"/>
   </bookViews>
   <sheets>
     <sheet name="SkillKind" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
   <si>
     <t>SkillKind</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -228,6 +228,64 @@
   </si>
   <si>
     <t>LifeValueDestroyNeeded</t>
+  </si>
+  <si>
+    <t>HazardValue1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HazardValue2</t>
+  </si>
+  <si>
+    <t>HazardValue3</t>
+  </si>
+  <si>
+    <t>治愈1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>强掠1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抢掠2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>风暴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>祝福</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仿造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>倒流</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>占卜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回旋镖2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>回旋镖1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>埋葬</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -773,7 +831,7 @@
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -799,6 +857,9 @@
       <c r="B2">
         <v>10001</v>
       </c>
+      <c r="C2" t="s">
+        <v>53</v>
+      </c>
       <c r="D2">
         <v>1</v>
       </c>
@@ -810,6 +871,9 @@
       <c r="B3">
         <v>10001</v>
       </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3">
         <v>2</v>
       </c>
@@ -821,6 +885,9 @@
       <c r="B4">
         <v>10002</v>
       </c>
+      <c r="C4" t="s">
+        <v>55</v>
+      </c>
       <c r="D4">
         <v>1</v>
       </c>
@@ -832,6 +899,9 @@
       <c r="B5">
         <v>10002</v>
       </c>
+      <c r="C5" t="s">
+        <v>56</v>
+      </c>
       <c r="D5">
         <v>2</v>
       </c>
@@ -843,6 +913,9 @@
       <c r="B6">
         <v>10003</v>
       </c>
+      <c r="C6" t="s">
+        <v>57</v>
+      </c>
       <c r="D6">
         <v>1</v>
       </c>
@@ -854,6 +927,9 @@
       <c r="B7">
         <v>10004</v>
       </c>
+      <c r="C7" t="s">
+        <v>58</v>
+      </c>
       <c r="D7">
         <v>1</v>
       </c>
@@ -865,6 +941,9 @@
       <c r="B8">
         <v>10005</v>
       </c>
+      <c r="C8" t="s">
+        <v>59</v>
+      </c>
       <c r="D8">
         <v>1</v>
       </c>
@@ -876,6 +955,9 @@
       <c r="B9">
         <v>10006</v>
       </c>
+      <c r="C9" t="s">
+        <v>60</v>
+      </c>
       <c r="D9">
         <v>1</v>
       </c>
@@ -887,6 +969,9 @@
       <c r="B10">
         <v>10007</v>
       </c>
+      <c r="C10" t="s">
+        <v>61</v>
+      </c>
       <c r="D10">
         <v>3</v>
       </c>
@@ -898,6 +983,9 @@
       <c r="B11">
         <v>20001</v>
       </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
       <c r="D11">
         <v>1</v>
       </c>
@@ -909,6 +997,9 @@
       <c r="B12">
         <v>20001</v>
       </c>
+      <c r="C12" t="s">
+        <v>62</v>
+      </c>
       <c r="D12">
         <v>2</v>
       </c>
@@ -919,6 +1010,9 @@
       </c>
       <c r="B13">
         <v>20002</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1034,7 +1128,7 @@
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
@@ -1067,7 +1161,7 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
-        <v>101</v>
+        <v>20101</v>
       </c>
       <c r="C2">
         <v>-1</v>
@@ -1084,7 +1178,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3">
-        <v>102</v>
+        <v>20102</v>
       </c>
       <c r="C3">
         <v>-2</v>
@@ -1101,7 +1195,7 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4">
-        <v>103</v>
+        <v>20103</v>
       </c>
       <c r="C4">
         <v>-2</v>
@@ -1118,7 +1212,7 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5">
-        <v>104</v>
+        <v>20104</v>
       </c>
       <c r="C5">
         <v>-2</v>
@@ -1135,7 +1229,7 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6">
-        <v>105</v>
+        <v>20105</v>
       </c>
       <c r="C6">
         <v>-3</v>
@@ -1152,7 +1246,7 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7">
-        <v>106</v>
+        <v>20106</v>
       </c>
       <c r="C7">
         <v>-4</v>
@@ -1169,7 +1263,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8">
-        <v>107</v>
+        <v>20107</v>
       </c>
       <c r="C8">
         <v>-5</v>
@@ -1186,7 +1280,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9">
-        <v>201</v>
+        <v>20201</v>
       </c>
       <c r="C9">
         <v>0</v>
@@ -1203,7 +1297,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10">
-        <v>301</v>
+        <v>20301</v>
       </c>
       <c r="C10">
         <v>0</v>
@@ -1220,7 +1314,7 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11">
-        <v>401</v>
+        <v>20401</v>
       </c>
       <c r="C11">
         <v>0</v>
@@ -1237,7 +1331,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12">
-        <v>402</v>
+        <v>20402</v>
       </c>
       <c r="C12">
         <v>0</v>
@@ -1254,7 +1348,7 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13">
-        <v>501</v>
+        <v>20501</v>
       </c>
       <c r="C13">
         <v>0</v>
@@ -1529,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA007006-7AAC-4D78-A815-D86742A3D98A}">
   <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
@@ -1770,19 +1864,23 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0DCE1E-385B-3B48-8A50-842A9C90776F}">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
     <col min="3" max="3" width="18.83203125" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="6" max="6" width="12.33203125" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" customWidth="1"/>
+    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>45</v>
       </c>
@@ -1797,10 +1895,777 @@
       </c>
       <c r="E1" s="2" t="s">
         <v>49</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2">
+        <v>30101</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <v>1001</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2">
+        <v>0</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3">
+        <v>30102</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>1001</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>1</v>
+      </c>
+      <c r="I3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4">
+        <v>30103</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>1004</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>1</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5">
+        <v>30104</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>1004</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
+      </c>
+      <c r="I5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6">
+        <v>30105</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>1005</v>
+      </c>
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7">
+        <v>30106</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>1007</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8">
+        <v>30107</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>2002</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>0</v>
+      </c>
+      <c r="H8">
+        <v>1</v>
+      </c>
+      <c r="I8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9">
+        <v>30108</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>2002</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>0</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
+      </c>
+      <c r="I9">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
+      <c r="A10">
+        <v>30109</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1008</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>0</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11">
+        <v>30110</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>2003</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12">
+        <v>30111</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>1001</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>2</v>
+      </c>
+      <c r="G12">
+        <v>1</v>
+      </c>
+      <c r="H12">
+        <v>3</v>
+      </c>
+      <c r="I12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13">
+        <v>30112</v>
+      </c>
+      <c r="C13">
+        <v>1</v>
+      </c>
+      <c r="D13">
+        <v>1001</v>
+      </c>
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>2</v>
+      </c>
+      <c r="G13">
+        <v>1</v>
+      </c>
+      <c r="H13">
+        <v>3</v>
+      </c>
+      <c r="I13">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
+      <c r="A14">
+        <v>30113</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>1001</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>2</v>
+      </c>
+      <c r="G14">
+        <v>1</v>
+      </c>
+      <c r="H14">
+        <v>3</v>
+      </c>
+      <c r="I14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
+      <c r="A15">
+        <v>30114</v>
+      </c>
+      <c r="C15">
+        <v>1</v>
+      </c>
+      <c r="D15">
+        <v>1005</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>2</v>
+      </c>
+      <c r="G15">
+        <v>1</v>
+      </c>
+      <c r="H15">
+        <v>3</v>
+      </c>
+      <c r="I15">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="A16">
+        <v>30115</v>
+      </c>
+      <c r="C16">
+        <v>2</v>
+      </c>
+      <c r="D16">
+        <v>1005</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>2</v>
+      </c>
+      <c r="G16">
+        <v>1</v>
+      </c>
+      <c r="H16">
+        <v>3</v>
+      </c>
+      <c r="I16">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17">
+        <v>30116</v>
+      </c>
+      <c r="C17">
+        <v>2</v>
+      </c>
+      <c r="D17">
+        <v>1005</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>2</v>
+      </c>
+      <c r="G17">
+        <v>1</v>
+      </c>
+      <c r="H17">
+        <v>3</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18">
+        <v>30117</v>
+      </c>
+      <c r="C18">
+        <v>1</v>
+      </c>
+      <c r="D18">
+        <v>2003</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>2</v>
+      </c>
+      <c r="G18">
+        <v>1</v>
+      </c>
+      <c r="H18">
+        <v>3</v>
+      </c>
+      <c r="I18">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
+      <c r="A19">
+        <v>30118</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>1007</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>2</v>
+      </c>
+      <c r="G19">
+        <v>1</v>
+      </c>
+      <c r="H19">
+        <v>3</v>
+      </c>
+      <c r="I19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
+      <c r="A20">
+        <v>30119</v>
+      </c>
+      <c r="C20">
+        <v>2</v>
+      </c>
+      <c r="D20">
+        <v>1003</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>3</v>
+      </c>
+      <c r="G20">
+        <v>2</v>
+      </c>
+      <c r="H20">
+        <v>5</v>
+      </c>
+      <c r="I20">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
+      <c r="A21">
+        <v>30120</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="D21">
+        <v>1005</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>3</v>
+      </c>
+      <c r="G21">
+        <v>2</v>
+      </c>
+      <c r="H21">
+        <v>5</v>
+      </c>
+      <c r="I21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
+      <c r="A22">
+        <v>30121</v>
+      </c>
+      <c r="C22">
+        <v>2</v>
+      </c>
+      <c r="D22">
+        <v>1009</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>3</v>
+      </c>
+      <c r="G22">
+        <v>2</v>
+      </c>
+      <c r="H22">
+        <v>5</v>
+      </c>
+      <c r="I22">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
+      <c r="A23">
+        <v>30122</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+      <c r="D23">
+        <v>1007</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>3</v>
+      </c>
+      <c r="G23">
+        <v>2</v>
+      </c>
+      <c r="H23">
+        <v>5</v>
+      </c>
+      <c r="I23">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
+      <c r="A24">
+        <v>30123</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+      <c r="D24">
+        <v>2001</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>3</v>
+      </c>
+      <c r="G24">
+        <v>2</v>
+      </c>
+      <c r="H24">
+        <v>5</v>
+      </c>
+      <c r="I24">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
+      <c r="A25">
+        <v>30124</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>1003</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>4</v>
+      </c>
+      <c r="G25">
+        <v>4</v>
+      </c>
+      <c r="H25">
+        <v>7</v>
+      </c>
+      <c r="I25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
+      <c r="A26">
+        <v>30125</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
+        <v>2001</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>4</v>
+      </c>
+      <c r="G26">
+        <v>4</v>
+      </c>
+      <c r="H26">
+        <v>7</v>
+      </c>
+      <c r="I26">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
+      <c r="A27">
+        <v>30126</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>1005</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>4</v>
+      </c>
+      <c r="G27">
+        <v>4</v>
+      </c>
+      <c r="H27">
+        <v>7</v>
+      </c>
+      <c r="I27">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
+      <c r="A28">
+        <v>30127</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>1009</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>4</v>
+      </c>
+      <c r="G28">
+        <v>4</v>
+      </c>
+      <c r="H28">
+        <v>7</v>
+      </c>
+      <c r="I28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
+      <c r="A29">
+        <v>30128</v>
+      </c>
+      <c r="C29">
+        <v>4</v>
+      </c>
+      <c r="D29">
+        <v>1005</v>
+      </c>
+      <c r="E29">
+        <v>1</v>
+      </c>
+      <c r="F29">
+        <v>5</v>
+      </c>
+      <c r="G29">
+        <v>5</v>
+      </c>
+      <c r="H29">
+        <v>9</v>
+      </c>
+      <c r="I29">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
+      <c r="A30">
+        <v>30129</v>
+      </c>
+      <c r="C30">
+        <v>4</v>
+      </c>
+      <c r="D30">
+        <v>1005</v>
+      </c>
+      <c r="E30">
+        <v>1</v>
+      </c>
+      <c r="F30">
+        <v>5</v>
+      </c>
+      <c r="G30">
+        <v>5</v>
+      </c>
+      <c r="H30">
+        <v>9</v>
+      </c>
+      <c r="I30">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/ConFig.xlsx
+++ b/ConFig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/xuhao/Projects/GitHub/Friday/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96412FD7-31A7-5242-B37E-A4BB7F9F621B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="6760" yWindow="3600" windowWidth="26380" windowHeight="17100" activeTab="5" xr2:uid="{4AA7346A-76D1-4311-A687-DD01542A4C42}"/>
+    <workbookView windowWidth="21390" windowHeight="11115" tabRatio="675"/>
   </bookViews>
   <sheets>
     <sheet name="SkillKind" sheetId="1" r:id="rId1"/>
@@ -20,146 +14,230 @@
     <sheet name="PirateConfig" sheetId="3" r:id="rId5"/>
     <sheet name="HazardCard" sheetId="6" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="84">
   <si>
     <t>SkillKind</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillDes</t>
+  </si>
+  <si>
+    <t>+{0}生命值</t>
+  </si>
+  <si>
+    <t>+{0}卡牌</t>
+  </si>
+  <si>
+    <t>{0}x摧毁</t>
+  </si>
+  <si>
+    <t>{0}x加倍</t>
+  </si>
+  <si>
+    <t>{0}x复制</t>
+  </si>
+  <si>
+    <t>进度值-{0}</t>
+  </si>
+  <si>
+    <t>排序{0}张牌</t>
+  </si>
+  <si>
+    <t>{0}x更换</t>
+  </si>
+  <si>
+    <t>{0}x放到底部</t>
+  </si>
+  <si>
+    <t>-{0}生命值</t>
+  </si>
+  <si>
+    <t>最高值={0}</t>
+  </si>
+  <si>
+    <t>停止抽取</t>
+  </si>
+  <si>
+    <t>生命抽卡加倍</t>
+  </si>
+  <si>
+    <t>只用一半的卡牌计算战斗值</t>
+  </si>
+  <si>
+    <t>与全部剩余的危险卡战斗</t>
+  </si>
+  <si>
+    <t>每张衰老卡算作+{0}危险值</t>
+  </si>
+  <si>
+    <t>每张已抽出的战斗卡都+{0}战斗值</t>
+  </si>
+  <si>
+    <t>SkillID</t>
+  </si>
+  <si>
+    <t>SkillKindID</t>
   </si>
   <si>
     <t>SkillName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Param</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+{0}生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>+{0}卡牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}x摧毁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}x加倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}x赋值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>排序{0}张牌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>进度值-{0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}x更换</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>{0}x放到底部</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>-{0}生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>最高值={0}</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>停止抽取</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>生命抽卡加倍</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>只用一半的卡牌计算战斗值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>与全部剩余的危险卡战斗</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每张衰老卡算作+{0}危险值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillDes</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SkillKindID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>每张已抽出的战斗卡都+{0}战斗值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治愈1</t>
+  </si>
+  <si>
+    <t>治愈2</t>
+  </si>
+  <si>
+    <t>强掠1</t>
+  </si>
+  <si>
+    <t>抢掠2</t>
+  </si>
+  <si>
+    <t>风暴</t>
+  </si>
+  <si>
+    <t>祝福</t>
+  </si>
+  <si>
+    <t>仿造</t>
+  </si>
+  <si>
+    <t>倒流</t>
+  </si>
+  <si>
+    <t>占卜</t>
+  </si>
+  <si>
+    <t>回旋镖1</t>
+  </si>
+  <si>
+    <t>回旋镖2</t>
+  </si>
+  <si>
+    <t>埋葬</t>
+  </si>
+  <si>
+    <t>流血</t>
+  </si>
+  <si>
+    <t>喷血</t>
+  </si>
+  <si>
+    <t>消磨</t>
+  </si>
+  <si>
+    <t>强制休息</t>
+  </si>
+  <si>
+    <t>荆棘外甲</t>
+  </si>
+  <si>
+    <t>一半一半</t>
+  </si>
+  <si>
+    <t>余危</t>
+  </si>
+  <si>
+    <t>时伤</t>
+  </si>
+  <si>
+    <t>脆弱</t>
+  </si>
+  <si>
+    <t>CardID</t>
+  </si>
+  <si>
+    <t>CardName</t>
+  </si>
+  <si>
+    <t>CombatEffectiveness</t>
+  </si>
+  <si>
+    <t>SpecialSkill</t>
+  </si>
+  <si>
+    <t>LifeValueDestroyNeeded</t>
+  </si>
+  <si>
+    <t>IsHard</t>
+  </si>
+  <si>
+    <t>锈蚀1</t>
+  </si>
+  <si>
+    <t>锈蚀2</t>
+  </si>
+  <si>
+    <t>锈蚀3</t>
+  </si>
+  <si>
+    <t>锈蚀4</t>
+  </si>
+  <si>
+    <t>锈蚀5</t>
+  </si>
+  <si>
+    <t>退缩</t>
+  </si>
+  <si>
+    <t>闲适</t>
+  </si>
+  <si>
+    <t>争斗</t>
+  </si>
+  <si>
+    <t>奋起争斗</t>
+  </si>
+  <si>
+    <t>休憩</t>
   </si>
   <si>
     <t>PirateID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>PirateName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HarzardValue</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>SpecialSkill</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>FreeCardsNum</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王疯</t>
+  </si>
+  <si>
+    <t>齐舒</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>陆羽</t>
+  </si>
+  <si>
+    <t>余路</t>
+  </si>
+  <si>
+    <t>瘦猫·孙</t>
   </si>
   <si>
     <t>斐烈儿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小贼1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小贼2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>小贼3</t>
@@ -171,67 +249,7 @@
     <t>小贼5</t>
   </si>
   <si>
-    <t>王疯</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>齐舒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>余路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>瘦猫·孙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardID</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardName</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CombatEffectiveness</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>LifeValueDestroyNeeded</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>IsHard</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CardID</t>
-  </si>
-  <si>
-    <t>CardName</t>
-  </si>
-  <si>
-    <t>CombatEffectiveness</t>
-  </si>
-  <si>
-    <t>SpecialSkill</t>
-  </si>
-  <si>
-    <t>LifeValueDestroyNeeded</t>
-  </si>
-  <si>
     <t>HazardValue1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>HazardValue2</t>
@@ -240,71 +258,36 @@
     <t>HazardValue3</t>
   </si>
   <si>
-    <t>治愈1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治愈2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>强掠1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>抢掠2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>风暴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>祝福</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>仿造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>倒流</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>占卜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回旋镖2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>回旋镖1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>埋葬</t>
-    <phoneticPr fontId="1" type="noConversion"/>
+    <t>小危</t>
+  </si>
+  <si>
+    <t>危</t>
+  </si>
+  <si>
+    <t>大危</t>
+  </si>
+  <si>
+    <t>重危</t>
+  </si>
+  <si>
+    <t>特危</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="2"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -312,20 +295,349 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="等线"/>
-      <family val="4"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -333,34 +645,320 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -409,7 +1007,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -442,26 +1040,9 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -494,23 +1075,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -652,27 +1216,22 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3255F7A-86DC-4611-AEB6-530A3DEDB76F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="8.83203125" customWidth="1"/>
-    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="1" max="1" width="8.83333333333333" customWidth="1"/>
+    <col min="2" max="2" width="32.6666666666667" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -680,23 +1239,23 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>19</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2">
         <v>10001</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3">
         <v>10002</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>4</v>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:2">
@@ -704,7 +1263,7 @@
         <v>10003</v>
       </c>
       <c r="B4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:2">
@@ -712,7 +1271,7 @@
         <v>10004</v>
       </c>
       <c r="B5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:2">
@@ -720,7 +1279,7 @@
         <v>10005</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2">
@@ -728,7 +1287,7 @@
         <v>10006</v>
       </c>
       <c r="B7" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:2">
@@ -744,7 +1303,7 @@
         <v>20001</v>
       </c>
       <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2">
@@ -752,15 +1311,15 @@
         <v>20002</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11" spans="1:2">
       <c r="A11">
         <v>30001</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>12</v>
+      <c r="B11" s="2" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:2">
@@ -768,7 +1327,7 @@
         <v>30002</v>
       </c>
       <c r="B12" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:2">
@@ -776,7 +1335,7 @@
         <v>30003</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:2">
@@ -784,7 +1343,7 @@
         <v>40001</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="15" spans="1:2">
@@ -792,7 +1351,7 @@
         <v>40002</v>
       </c>
       <c r="B15" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="1:2">
@@ -800,7 +1359,7 @@
         <v>40003</v>
       </c>
       <c r="B16" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="17" spans="1:2">
@@ -808,7 +1367,7 @@
         <v>40004</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="1:2">
@@ -816,38 +1375,39 @@
         <v>40005</v>
       </c>
       <c r="B18" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{63D9E7A7-E116-422F-9482-07CB6F07862C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="C14" sqref="C14:C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="3"/>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
         <v>20</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>21</v>
       </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -858,7 +1418,7 @@
         <v>10001</v>
       </c>
       <c r="C2" t="s">
-        <v>53</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>1</v>
@@ -872,7 +1432,7 @@
         <v>10001</v>
       </c>
       <c r="C3" t="s">
-        <v>54</v>
+        <v>24</v>
       </c>
       <c r="D3">
         <v>2</v>
@@ -886,7 +1446,7 @@
         <v>10002</v>
       </c>
       <c r="C4" t="s">
-        <v>55</v>
+        <v>25</v>
       </c>
       <c r="D4">
         <v>1</v>
@@ -900,7 +1460,7 @@
         <v>10002</v>
       </c>
       <c r="C5" t="s">
-        <v>56</v>
+        <v>26</v>
       </c>
       <c r="D5">
         <v>2</v>
@@ -914,7 +1474,7 @@
         <v>10003</v>
       </c>
       <c r="C6" t="s">
-        <v>57</v>
+        <v>27</v>
       </c>
       <c r="D6">
         <v>1</v>
@@ -928,7 +1488,7 @@
         <v>10004</v>
       </c>
       <c r="C7" t="s">
-        <v>58</v>
+        <v>28</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -942,7 +1502,7 @@
         <v>10005</v>
       </c>
       <c r="C8" t="s">
-        <v>59</v>
+        <v>29</v>
       </c>
       <c r="D8">
         <v>1</v>
@@ -956,7 +1516,7 @@
         <v>10006</v>
       </c>
       <c r="C9" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D9">
         <v>1</v>
@@ -970,7 +1530,7 @@
         <v>10007</v>
       </c>
       <c r="C10" t="s">
-        <v>61</v>
+        <v>31</v>
       </c>
       <c r="D10">
         <v>3</v>
@@ -984,7 +1544,7 @@
         <v>20001</v>
       </c>
       <c r="C11" t="s">
-        <v>63</v>
+        <v>32</v>
       </c>
       <c r="D11">
         <v>1</v>
@@ -998,7 +1558,7 @@
         <v>20001</v>
       </c>
       <c r="C12" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="D12">
         <v>2</v>
@@ -1012,7 +1572,7 @@
         <v>20002</v>
       </c>
       <c r="C13" t="s">
-        <v>64</v>
+        <v>34</v>
       </c>
       <c r="D13">
         <v>1</v>
@@ -1025,6 +1585,9 @@
       <c r="B14">
         <v>30001</v>
       </c>
+      <c r="C14" t="s">
+        <v>35</v>
+      </c>
       <c r="D14">
         <v>1</v>
       </c>
@@ -1036,6 +1599,9 @@
       <c r="B15">
         <v>30001</v>
       </c>
+      <c r="C15" t="s">
+        <v>36</v>
+      </c>
       <c r="D15">
         <v>2</v>
       </c>
@@ -1047,6 +1613,9 @@
       <c r="B16">
         <v>30002</v>
       </c>
+      <c r="C16" t="s">
+        <v>37</v>
+      </c>
       <c r="D16">
         <v>0</v>
       </c>
@@ -1058,6 +1627,9 @@
       <c r="B17">
         <v>30003</v>
       </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
       <c r="D17">
         <v>0</v>
       </c>
@@ -1069,6 +1641,9 @@
       <c r="B18">
         <v>40001</v>
       </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
       <c r="D18">
         <v>2</v>
       </c>
@@ -1080,6 +1655,9 @@
       <c r="B19">
         <v>40002</v>
       </c>
+      <c r="C19" t="s">
+        <v>40</v>
+      </c>
       <c r="D19">
         <v>0</v>
       </c>
@@ -1091,6 +1669,9 @@
       <c r="B20">
         <v>40003</v>
       </c>
+      <c r="C20" t="s">
+        <v>41</v>
+      </c>
       <c r="D20">
         <v>1</v>
       </c>
@@ -1102,6 +1683,9 @@
       <c r="B21">
         <v>40004</v>
       </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
       <c r="D21">
         <v>2</v>
       </c>
@@ -1113,56 +1697,63 @@
       <c r="B22">
         <v>40005</v>
       </c>
+      <c r="C22" t="s">
+        <v>43</v>
+      </c>
       <c r="D22">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6104212-A17D-48D6-AC3E-D98AE3B8537F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="5"/>
   <cols>
-    <col min="2" max="2" width="12.1640625" customWidth="1"/>
-    <col min="3" max="3" width="19.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.1666666666667" customWidth="1"/>
+    <col min="3" max="3" width="19.3333333333333" customWidth="1"/>
     <col min="4" max="4" width="12.5" customWidth="1"/>
-    <col min="5" max="5" width="21.83203125" customWidth="1"/>
+    <col min="5" max="5" width="21.8333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="F1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:6">
       <c r="A2">
         <v>20101</v>
       </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
       <c r="C2">
         <v>-1</v>
       </c>
@@ -1180,6 +1771,9 @@
       <c r="A3">
         <v>20102</v>
       </c>
+      <c r="B3" t="s">
+        <v>51</v>
+      </c>
       <c r="C3">
         <v>-2</v>
       </c>
@@ -1197,6 +1791,9 @@
       <c r="A4">
         <v>20103</v>
       </c>
+      <c r="B4" t="s">
+        <v>51</v>
+      </c>
       <c r="C4">
         <v>-2</v>
       </c>
@@ -1214,6 +1811,9 @@
       <c r="A5">
         <v>20104</v>
       </c>
+      <c r="B5" t="s">
+        <v>51</v>
+      </c>
       <c r="C5">
         <v>-2</v>
       </c>
@@ -1231,6 +1831,9 @@
       <c r="A6">
         <v>20105</v>
       </c>
+      <c r="B6" t="s">
+        <v>52</v>
+      </c>
       <c r="C6">
         <v>-3</v>
       </c>
@@ -1248,6 +1851,9 @@
       <c r="A7">
         <v>20106</v>
       </c>
+      <c r="B7" t="s">
+        <v>53</v>
+      </c>
       <c r="C7">
         <v>-4</v>
       </c>
@@ -1265,6 +1871,9 @@
       <c r="A8">
         <v>20107</v>
       </c>
+      <c r="B8" t="s">
+        <v>54</v>
+      </c>
       <c r="C8">
         <v>-5</v>
       </c>
@@ -1282,6 +1891,9 @@
       <c r="A9">
         <v>20201</v>
       </c>
+      <c r="B9" t="s">
+        <v>35</v>
+      </c>
       <c r="C9">
         <v>0</v>
       </c>
@@ -1299,6 +1911,9 @@
       <c r="A10">
         <v>20301</v>
       </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -1316,6 +1931,9 @@
       <c r="A11">
         <v>20401</v>
       </c>
+      <c r="B11" t="s">
+        <v>37</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -1333,6 +1951,9 @@
       <c r="A12">
         <v>20402</v>
       </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1350,6 +1971,9 @@
       <c r="A13">
         <v>20501</v>
       </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
       <c r="C13">
         <v>0</v>
       </c>
@@ -1364,48 +1988,52 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{490317B2-DCDB-44D8-8F5E-B0F062F7CFBC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView zoomScale="98" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+    <sheetView zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.6666666666667" customWidth="1"/>
     <col min="3" max="3" width="18" customWidth="1"/>
-    <col min="4" max="4" width="11.1640625" customWidth="1"/>
+    <col min="4" max="4" width="11.1666666666667" customWidth="1"/>
     <col min="5" max="5" width="20.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="C1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2">
         <v>10101</v>
       </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
       <c r="C2">
         <v>-1</v>
       </c>
@@ -1420,6 +2048,9 @@
       <c r="A3">
         <v>10102</v>
       </c>
+      <c r="B3" t="s">
+        <v>55</v>
+      </c>
       <c r="C3">
         <v>-1</v>
       </c>
@@ -1434,6 +2065,9 @@
       <c r="A4">
         <v>10103</v>
       </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
       <c r="C4">
         <v>-1</v>
       </c>
@@ -1448,6 +2082,9 @@
       <c r="A5">
         <v>10104</v>
       </c>
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
       <c r="C5">
         <v>-1</v>
       </c>
@@ -1462,6 +2099,9 @@
       <c r="A6">
         <v>10105</v>
       </c>
+      <c r="B6" t="s">
+        <v>55</v>
+      </c>
       <c r="C6">
         <v>-1</v>
       </c>
@@ -1476,6 +2116,9 @@
       <c r="A7">
         <v>10201</v>
       </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
       <c r="C7">
         <v>0</v>
       </c>
@@ -1490,6 +2133,9 @@
       <c r="A8">
         <v>10202</v>
       </c>
+      <c r="B8" t="s">
+        <v>56</v>
+      </c>
       <c r="C8">
         <v>0</v>
       </c>
@@ -1504,6 +2150,9 @@
       <c r="A9">
         <v>10203</v>
       </c>
+      <c r="B9" t="s">
+        <v>56</v>
+      </c>
       <c r="C9">
         <v>0</v>
       </c>
@@ -1518,6 +2167,9 @@
       <c r="A10">
         <v>10204</v>
       </c>
+      <c r="B10" t="s">
+        <v>56</v>
+      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -1532,6 +2184,9 @@
       <c r="A11">
         <v>10205</v>
       </c>
+      <c r="B11" t="s">
+        <v>56</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -1546,6 +2201,9 @@
       <c r="A12">
         <v>10206</v>
       </c>
+      <c r="B12" t="s">
+        <v>56</v>
+      </c>
       <c r="C12">
         <v>0</v>
       </c>
@@ -1560,8 +2218,11 @@
       <c r="A13">
         <v>10207</v>
       </c>
+      <c r="B13" t="s">
+        <v>57</v>
+      </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -1574,8 +2235,11 @@
       <c r="A14">
         <v>10208</v>
       </c>
+      <c r="B14" t="s">
+        <v>57</v>
+      </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -1588,6 +2252,9 @@
       <c r="A15">
         <v>10301</v>
       </c>
+      <c r="B15" t="s">
+        <v>58</v>
+      </c>
       <c r="C15">
         <v>2</v>
       </c>
@@ -1602,6 +2269,9 @@
       <c r="A16">
         <v>10401</v>
       </c>
+      <c r="B16" t="s">
+        <v>59</v>
+      </c>
       <c r="C16">
         <v>0</v>
       </c>
@@ -1613,43 +2283,44 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA007006-7AAC-4D78-A815-D86742A3D98A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
   <cols>
-    <col min="2" max="2" width="12.83203125" customWidth="1"/>
-    <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="2" max="2" width="12.8333333333333" customWidth="1"/>
+    <col min="3" max="3" width="13.3333333333333" customWidth="1"/>
+    <col min="4" max="4" width="12.3333333333333" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="B1" t="s">
-        <v>24</v>
+        <v>61</v>
       </c>
       <c r="C1" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="E1" t="s">
-        <v>27</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1657,7 +2328,7 @@
         <v>101</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>64</v>
       </c>
       <c r="C2">
         <v>15</v>
@@ -1674,7 +2345,7 @@
         <v>201</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C3">
         <v>20</v>
@@ -1691,7 +2362,7 @@
         <v>301</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>66</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -1708,7 +2379,7 @@
         <v>401</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="C5">
         <v>0</v>
@@ -1725,7 +2396,7 @@
         <v>401</v>
       </c>
       <c r="B6" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C6">
         <v>0</v>
@@ -1742,7 +2413,7 @@
         <v>501</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>69</v>
       </c>
       <c r="C7">
         <v>50</v>
@@ -1759,7 +2430,7 @@
         <v>502</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="C8">
         <v>35</v>
@@ -1776,7 +2447,7 @@
         <v>503</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>71</v>
       </c>
       <c r="C9">
         <v>27</v>
@@ -1793,7 +2464,7 @@
         <v>504</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>72</v>
       </c>
       <c r="C10">
         <v>19</v>
@@ -1810,7 +2481,7 @@
         <v>505</v>
       </c>
       <c r="B11" t="s">
-        <v>31</v>
+        <v>73</v>
       </c>
       <c r="C11">
         <v>15</v>
@@ -1827,7 +2498,7 @@
         <v>506</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>74</v>
       </c>
       <c r="C12">
         <v>31</v>
@@ -1844,7 +2515,7 @@
         <v>507</v>
       </c>
       <c r="B13" t="s">
-        <v>33</v>
+        <v>75</v>
       </c>
       <c r="C13">
         <v>23</v>
@@ -1857,62 +2528,66 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0DCE1E-385B-3B48-8A50-842A9C90776F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F33" sqref="F33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="3" max="3" width="18.83203125" customWidth="1"/>
+    <col min="3" max="3" width="18.8333333333333" customWidth="1"/>
     <col min="5" max="5" width="21" customWidth="1"/>
-    <col min="6" max="6" width="12.33203125" customWidth="1"/>
-    <col min="7" max="7" width="13.1640625" customWidth="1"/>
-    <col min="8" max="8" width="14.83203125" customWidth="1"/>
+    <col min="6" max="6" width="12.3333333333333" customWidth="1"/>
+    <col min="7" max="7" width="13.1666666666667" customWidth="1"/>
+    <col min="8" max="8" width="14.8333333333333" customWidth="1"/>
     <col min="9" max="9" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>52</v>
+      <c r="F1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:9">
       <c r="A2">
         <v>30101</v>
       </c>
+      <c r="B2" t="s">
+        <v>79</v>
+      </c>
       <c r="C2">
         <v>0</v>
       </c>
@@ -1939,6 +2614,9 @@
       <c r="A3">
         <v>30102</v>
       </c>
+      <c r="B3" t="s">
+        <v>79</v>
+      </c>
       <c r="C3">
         <v>0</v>
       </c>
@@ -1965,6 +2643,9 @@
       <c r="A4">
         <v>30103</v>
       </c>
+      <c r="B4" t="s">
+        <v>79</v>
+      </c>
       <c r="C4">
         <v>0</v>
       </c>
@@ -1991,6 +2672,9 @@
       <c r="A5">
         <v>30104</v>
       </c>
+      <c r="B5" t="s">
+        <v>79</v>
+      </c>
       <c r="C5">
         <v>0</v>
       </c>
@@ -2017,6 +2701,9 @@
       <c r="A6">
         <v>30105</v>
       </c>
+      <c r="B6" t="s">
+        <v>79</v>
+      </c>
       <c r="C6">
         <v>0</v>
       </c>
@@ -2043,6 +2730,9 @@
       <c r="A7">
         <v>30106</v>
       </c>
+      <c r="B7" t="s">
+        <v>79</v>
+      </c>
       <c r="C7">
         <v>0</v>
       </c>
@@ -2069,6 +2759,9 @@
       <c r="A8">
         <v>30107</v>
       </c>
+      <c r="B8" t="s">
+        <v>79</v>
+      </c>
       <c r="C8">
         <v>0</v>
       </c>
@@ -2095,6 +2788,9 @@
       <c r="A9">
         <v>30108</v>
       </c>
+      <c r="B9" t="s">
+        <v>79</v>
+      </c>
       <c r="C9">
         <v>0</v>
       </c>
@@ -2121,6 +2817,9 @@
       <c r="A10">
         <v>30109</v>
       </c>
+      <c r="B10" t="s">
+        <v>79</v>
+      </c>
       <c r="C10">
         <v>0</v>
       </c>
@@ -2147,6 +2846,9 @@
       <c r="A11">
         <v>30110</v>
       </c>
+      <c r="B11" t="s">
+        <v>79</v>
+      </c>
       <c r="C11">
         <v>0</v>
       </c>
@@ -2173,6 +2875,9 @@
       <c r="A12">
         <v>30111</v>
       </c>
+      <c r="B12" t="s">
+        <v>80</v>
+      </c>
       <c r="C12">
         <v>1</v>
       </c>
@@ -2199,6 +2904,9 @@
       <c r="A13">
         <v>30112</v>
       </c>
+      <c r="B13" t="s">
+        <v>80</v>
+      </c>
       <c r="C13">
         <v>1</v>
       </c>
@@ -2225,6 +2933,9 @@
       <c r="A14">
         <v>30113</v>
       </c>
+      <c r="B14" t="s">
+        <v>80</v>
+      </c>
       <c r="C14">
         <v>1</v>
       </c>
@@ -2251,6 +2962,9 @@
       <c r="A15">
         <v>30114</v>
       </c>
+      <c r="B15" t="s">
+        <v>80</v>
+      </c>
       <c r="C15">
         <v>1</v>
       </c>
@@ -2277,6 +2991,9 @@
       <c r="A16">
         <v>30115</v>
       </c>
+      <c r="B16" t="s">
+        <v>80</v>
+      </c>
       <c r="C16">
         <v>2</v>
       </c>
@@ -2303,6 +3020,9 @@
       <c r="A17">
         <v>30116</v>
       </c>
+      <c r="B17" t="s">
+        <v>80</v>
+      </c>
       <c r="C17">
         <v>2</v>
       </c>
@@ -2329,6 +3049,9 @@
       <c r="A18">
         <v>30117</v>
       </c>
+      <c r="B18" t="s">
+        <v>80</v>
+      </c>
       <c r="C18">
         <v>1</v>
       </c>
@@ -2355,6 +3078,9 @@
       <c r="A19">
         <v>30118</v>
       </c>
+      <c r="B19" t="s">
+        <v>80</v>
+      </c>
       <c r="C19">
         <v>1</v>
       </c>
@@ -2381,6 +3107,9 @@
       <c r="A20">
         <v>30119</v>
       </c>
+      <c r="B20" t="s">
+        <v>81</v>
+      </c>
       <c r="C20">
         <v>2</v>
       </c>
@@ -2407,6 +3136,9 @@
       <c r="A21">
         <v>30120</v>
       </c>
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
       <c r="C21">
         <v>2</v>
       </c>
@@ -2433,6 +3165,9 @@
       <c r="A22">
         <v>30121</v>
       </c>
+      <c r="B22" t="s">
+        <v>81</v>
+      </c>
       <c r="C22">
         <v>2</v>
       </c>
@@ -2459,6 +3194,9 @@
       <c r="A23">
         <v>30122</v>
       </c>
+      <c r="B23" t="s">
+        <v>81</v>
+      </c>
       <c r="C23">
         <v>2</v>
       </c>
@@ -2485,6 +3223,9 @@
       <c r="A24">
         <v>30123</v>
       </c>
+      <c r="B24" t="s">
+        <v>81</v>
+      </c>
       <c r="C24">
         <v>2</v>
       </c>
@@ -2511,6 +3252,9 @@
       <c r="A25">
         <v>30124</v>
       </c>
+      <c r="B25" t="s">
+        <v>82</v>
+      </c>
       <c r="C25">
         <v>3</v>
       </c>
@@ -2537,6 +3281,9 @@
       <c r="A26">
         <v>30125</v>
       </c>
+      <c r="B26" t="s">
+        <v>82</v>
+      </c>
       <c r="C26">
         <v>3</v>
       </c>
@@ -2563,6 +3310,9 @@
       <c r="A27">
         <v>30126</v>
       </c>
+      <c r="B27" t="s">
+        <v>82</v>
+      </c>
       <c r="C27">
         <v>3</v>
       </c>
@@ -2589,6 +3339,9 @@
       <c r="A28">
         <v>30127</v>
       </c>
+      <c r="B28" t="s">
+        <v>82</v>
+      </c>
       <c r="C28">
         <v>3</v>
       </c>
@@ -2615,6 +3368,9 @@
       <c r="A29">
         <v>30128</v>
       </c>
+      <c r="B29" t="s">
+        <v>83</v>
+      </c>
       <c r="C29">
         <v>4</v>
       </c>
@@ -2641,6 +3397,9 @@
       <c r="A30">
         <v>30129</v>
       </c>
+      <c r="B30" t="s">
+        <v>83</v>
+      </c>
       <c r="C30">
         <v>4</v>
       </c>
@@ -2664,8 +3423,8 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/ConFig.xlsx
+++ b/ConFig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21390" windowHeight="11115" tabRatio="675"/>
+    <workbookView windowWidth="13680" windowHeight="8310" tabRatio="675" firstSheet="2" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="SkillKind" sheetId="1" r:id="rId1"/>
@@ -207,7 +207,7 @@
     <t>PirateName</t>
   </si>
   <si>
-    <t>HarzardValue</t>
+    <t>HazardValue</t>
   </si>
   <si>
     <t>FreeCardsNum</t>
@@ -278,9 +278,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -300,65 +300,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -374,7 +315,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -382,15 +338,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -419,17 +382,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -438,6 +399,45 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -452,37 +452,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -494,31 +470,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -536,7 +494,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -548,7 +530,73 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -560,19 +608,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -584,55 +620,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -643,24 +643,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -689,6 +671,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -699,6 +696,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -718,28 +735,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -751,10 +751,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -763,133 +763,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1224,7 +1224,7 @@
   <sheetPr/>
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
@@ -2295,7 +2295,7 @@
   <dimension ref="A1:E13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.83333333333333" defaultRowHeight="14.25" outlineLevelCol="4"/>
@@ -2538,8 +2538,8 @@
   <sheetPr/>
   <dimension ref="A1:I30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
